--- a/artfynd/A 59075-2019.xlsx
+++ b/artfynd/A 59075-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65465312</v>
+        <v>65465314</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>596622.0844860236</v>
+        <v>596644.5210993474</v>
       </c>
       <c r="R2" t="n">
-        <v>7033546.765084744</v>
+        <v>7033591.362922658</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>på stående och liggande asp</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65465311</v>
+        <v>65465293</v>
       </c>
       <c r="B3" t="n">
-        <v>98431</v>
+        <v>78503</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222771</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>596614.2711049049</v>
+        <v>596634.3836491199</v>
       </c>
       <c r="R3" t="n">
-        <v>7033538.013857133</v>
+        <v>7033689.201437204</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,11 +885,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>riklig</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -898,6 +893,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>grov asp</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65465314</v>
+        <v>65465316</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>98431</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1010,11 +1010,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1031,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65465293</v>
+        <v>110212043</v>
       </c>
       <c r="B5" t="n">
-        <v>78503</v>
+        <v>95519</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,37 +1042,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Forsmo-Näsåker, Ång</t>
+          <t>Öster om Hundforsklippen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>596634.3836491199</v>
+        <v>596644.6175523957</v>
       </c>
       <c r="R5" t="n">
-        <v>7033689.201437204</v>
+        <v>7033603.017906426</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2016-07-05</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2016-07-11</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1127,31 +1122,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>grov asp</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65465310</v>
+        <v>65465312</v>
       </c>
       <c r="B6" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>596618.2251586519</v>
+        <v>596622.0844860236</v>
       </c>
       <c r="R6" t="n">
-        <v>7033540.822328554</v>
+        <v>7033546.765084744</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1244,6 +1234,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>på stående och liggande asp</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1260,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65465316</v>
+        <v>65465311</v>
       </c>
       <c r="B7" t="n">
         <v>98431</v>
@@ -1300,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>596644.5210993474</v>
+        <v>596614.2711049049</v>
       </c>
       <c r="R7" t="n">
-        <v>7033591.362922658</v>
+        <v>7033538.013857133</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,6 +1341,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>riklig</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65465302</v>
+        <v>65465310</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>596638.1594757214</v>
+        <v>596618.2251586519</v>
       </c>
       <c r="R8" t="n">
-        <v>7033564.281082292</v>
+        <v>7033540.822328554</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1468,11 +1468,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1489,7 +1484,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65465313</v>
+        <v>65465302</v>
       </c>
       <c r="B9" t="n">
         <v>78569</v>
@@ -1529,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>596619.7922318493</v>
+        <v>596638.1594757214</v>
       </c>
       <c r="R9" t="n">
-        <v>7033578.067088672</v>
+        <v>7033564.281082292</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1606,7 +1601,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110212040</v>
+        <v>65465313</v>
       </c>
       <c r="B10" t="n">
         <v>78569</v>
@@ -1642,17 +1637,17 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Öster om Hundforsklippen, Ång</t>
+          <t>Forsmo-Näsåker, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>596631.5270823942</v>
+        <v>596619.7922318493</v>
       </c>
       <c r="R10" t="n">
-        <v>7033546.154131784</v>
+        <v>7033578.067088672</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1676,7 +1671,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2016-07-05</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1686,7 +1681,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2016-07-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1705,28 +1700,28 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Asp.</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Johan Kjetselberg</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Johan Kjetselberg</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110212041</v>
+        <v>110212040</v>
       </c>
       <c r="B11" t="n">
-        <v>56401</v>
+        <v>78569</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1739,21 +1734,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100048</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1763,10 +1758,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>596650.6339234078</v>
+        <v>596631.5270823942</v>
       </c>
       <c r="R11" t="n">
-        <v>7033582.136389803</v>
+        <v>7033546.154131784</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1811,11 +1806,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Bohål med ungar i asp.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1824,6 +1814,11 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Asp.</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1840,10 +1835,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110212042</v>
+        <v>110212041</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>56401</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,21 +1851,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>100048</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1875,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>596638.8413890857</v>
+        <v>596650.6339234078</v>
       </c>
       <c r="R12" t="n">
-        <v>7033586.261507703</v>
+        <v>7033582.136389803</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1928,6 +1923,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Bohål med ungar i asp.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1936,11 +1936,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Asp.</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1957,10 +1952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110212043</v>
+        <v>110212042</v>
       </c>
       <c r="B13" t="n">
-        <v>95519</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,25 +1964,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1997,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>596644.6175523957</v>
+        <v>596638.8413890857</v>
       </c>
       <c r="R13" t="n">
-        <v>7033603.017906426</v>
+        <v>7033586.261507703</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2053,6 +2048,11 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Asp.</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">

--- a/artfynd/A 59075-2019.xlsx
+++ b/artfynd/A 59075-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65465314</v>
+        <v>65465312</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>596644.5210993474</v>
+        <v>596622.0844860236</v>
       </c>
       <c r="R2" t="n">
-        <v>7033591.362922658</v>
+        <v>7033546.765084744</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>på stående och liggande asp</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65465293</v>
+        <v>65465311</v>
       </c>
       <c r="B3" t="n">
-        <v>78503</v>
+        <v>98431</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>222771</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>596634.3836491199</v>
+        <v>596614.2711049049</v>
       </c>
       <c r="R3" t="n">
-        <v>7033689.201437204</v>
+        <v>7033538.013857133</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,6 +885,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>riklig</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -893,11 +898,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>grov asp</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65465316</v>
+        <v>65465314</v>
       </c>
       <c r="B4" t="n">
-        <v>98431</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1010,6 +1010,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1026,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110212043</v>
+        <v>65465293</v>
       </c>
       <c r="B5" t="n">
-        <v>95519</v>
+        <v>78503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,37 +1047,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Öster om Hundforsklippen, Ång</t>
+          <t>Forsmo-Näsåker, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>596644.6175523957</v>
+        <v>596634.3836491199</v>
       </c>
       <c r="R5" t="n">
-        <v>7033603.017906426</v>
+        <v>7033689.201437204</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2016-07-05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1106,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2016-07-11</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1122,26 +1127,31 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>grov asp</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Johan Kjetselberg</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Johan Kjetselberg</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65465312</v>
+        <v>65465310</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>596622.0844860236</v>
+        <v>596618.2251586519</v>
       </c>
       <c r="R6" t="n">
-        <v>7033546.765084744</v>
+        <v>7033540.822328554</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1234,11 +1244,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>på stående och liggande asp</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1255,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65465311</v>
+        <v>65465316</v>
       </c>
       <c r="B7" t="n">
         <v>98431</v>
@@ -1295,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>596614.2711049049</v>
+        <v>596644.5210993474</v>
       </c>
       <c r="R7" t="n">
-        <v>7033538.013857133</v>
+        <v>7033591.362922658</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1341,11 +1346,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>riklig</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65465310</v>
+        <v>65465302</v>
       </c>
       <c r="B8" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>596618.2251586519</v>
+        <v>596638.1594757214</v>
       </c>
       <c r="R8" t="n">
-        <v>7033540.822328554</v>
+        <v>7033564.281082292</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1468,6 +1468,11 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1484,7 +1489,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65465302</v>
+        <v>65465313</v>
       </c>
       <c r="B9" t="n">
         <v>78569</v>
@@ -1524,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>596638.1594757214</v>
+        <v>596619.7922318493</v>
       </c>
       <c r="R9" t="n">
-        <v>7033564.281082292</v>
+        <v>7033578.067088672</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1601,7 +1606,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65465313</v>
+        <v>110212040</v>
       </c>
       <c r="B10" t="n">
         <v>78569</v>
@@ -1637,17 +1642,17 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Forsmo-Näsåker, Ång</t>
+          <t>Öster om Hundforsklippen, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>596619.7922318493</v>
+        <v>596631.5270823942</v>
       </c>
       <c r="R10" t="n">
-        <v>7033578.067088672</v>
+        <v>7033546.154131784</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1671,7 +1676,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2016-07-05</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1681,7 +1686,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2016-07-11</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1700,28 +1705,28 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>Asp.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Johan Kjetselberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110212040</v>
+        <v>110212041</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>56401</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,21 +1739,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>100048</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1758,10 +1763,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>596631.5270823942</v>
+        <v>596650.6339234078</v>
       </c>
       <c r="R11" t="n">
-        <v>7033546.154131784</v>
+        <v>7033582.136389803</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1806,6 +1811,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Bohål med ungar i asp.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1814,11 +1824,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Asp.</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1835,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110212041</v>
+        <v>110212042</v>
       </c>
       <c r="B12" t="n">
-        <v>56401</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,21 +1856,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100048</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1875,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>596650.6339234078</v>
+        <v>596638.8413890857</v>
       </c>
       <c r="R12" t="n">
-        <v>7033582.136389803</v>
+        <v>7033586.261507703</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1923,11 +1928,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Bohål med ungar i asp.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1936,6 +1936,11 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Asp.</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1952,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110212042</v>
+        <v>110212043</v>
       </c>
       <c r="B13" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,25 +1969,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1992,10 +1997,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>596638.8413890857</v>
+        <v>596644.6175523957</v>
       </c>
       <c r="R13" t="n">
-        <v>7033586.261507703</v>
+        <v>7033603.017906426</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2048,11 +2053,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Asp.</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
